--- a/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\projeto\WorkSpace\AdvantageBDDTest\WorkSpace\AdvantageBDD\src\main\java\br\com\rsinet\hub_BDD\AdvantageBDDUtil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A86A4D-B472-4392-8038-B547CD3D30BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD49A9F-7377-4222-A347-11BBA77BD576}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>gehaime.silva@rsinet.com.br</t>
   </si>
   <si>
-    <t>StarTrek123</t>
-  </si>
-  <si>
     <t>Gehaime</t>
   </si>
   <si>
@@ -96,10 +93,13 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>Geheaime123</t>
-  </si>
-  <si>
     <t>(11) 943257234</t>
+  </si>
+  <si>
+    <t>Gehaime94945</t>
+  </si>
+  <si>
+    <t>StarTrek234</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -861,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -878,25 +878,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\projeto\WorkSpace\AdvantageBDDTest\WorkSpace\AdvantageBDD\src\main\java\br\com\rsinet\hub_BDD\AdvantageBDDUtil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD49A9F-7377-4222-A347-11BBA77BD576}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D46D77-CE99-4B5A-B225-BDBCC9BA4BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -81,25 +81,25 @@
     <t>Osasco</t>
   </si>
   <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t>03454-230</t>
   </si>
   <si>
     <t>selecionaPais</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>(11) 943257234</t>
   </si>
   <si>
-    <t>Gehaime94945</t>
-  </si>
-  <si>
     <t>StarTrek234</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Gehaime8494949</t>
+  </si>
+  <si>
+    <t>bolivia</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -785,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -878,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\projeto\WorkSpace\AdvantageBDDTest\WorkSpace\AdvantageBDD\src\main\java\br\com\rsinet\hub_BDD\AdvantageBDDUtil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D46D77-CE99-4B5A-B225-BDBCC9BA4BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54185E7D-4EF6-4334-99C6-CDF7A0789B67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
   </bookViews>
@@ -96,10 +96,10 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Gehaime8494949</t>
-  </si>
-  <si>
     <t>bolivia</t>
+  </si>
+  <si>
+    <t>Gehaime007</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="7"/>
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">

--- a/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_BDD/AdvantageBDDUtil/Cadastro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Documents\projeto\WorkSpace\AdvantageBDDTest\WorkSpace\AdvantageBDD\src\main\java\br\com\rsinet\hub_BDD\AdvantageBDDUtil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54185E7D-4EF6-4334-99C6-CDF7A0789B67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879D74B3-12F4-4E5F-90D5-1076FB48E11E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2EC8C595-F690-4BCD-8654-8D49096B86F1}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>bolivia</t>
   </si>
   <si>
-    <t>Gehaime007</t>
+    <t>Gehaime00733</t>
   </si>
 </sst>
 </file>
